--- a/data/output/FV2504_FV2410/UTILMD/55077.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55077.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="446">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="446">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1517,6 +1517,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U231" totalsRowShown="0">
+  <autoFilter ref="A1:U231"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1806,7 +1836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11182,5 +11215,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55077.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55077.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4374" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="670">
   <si>
     <t>#</t>
   </si>
@@ -6146,44 +6146,42 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M75" s="5" t="s">
+      <c r="K75" s="2"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -7836,46 +7834,44 @@
       <c r="V114" s="11"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K115" s="5" t="s">
+      <c r="K115" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L115" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M115" s="5" t="s">
+      <c r="L115" s="4"/>
+      <c r="M115" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N115" s="5" t="s">
+      <c r="N115" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="V115" s="5" t="s">
+      <c r="V115" s="2" t="s">
         <v>310</v>
       </c>
     </row>

--- a/data/output/FV2504_FV2410/UTILMD/55077.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55077.xlsx
@@ -2173,7 +2173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2196,6 +2196,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2204,6 +2207,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2646,7 +2652,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3014,7 +3020,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3160,7 +3166,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3366,7 +3372,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3676,7 +3682,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3858,24 +3864,24 @@
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M26" s="5"/>
@@ -3893,33 +3899,33 @@
       <c r="A27" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M27" s="5"/>
@@ -3937,33 +3943,33 @@
       <c r="A28" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M28" s="5"/>
@@ -3981,31 +3987,31 @@
       <c r="A29" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M29" s="5"/>
@@ -4023,31 +4029,31 @@
       <c r="A30" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M30" s="5"/>
@@ -4065,31 +4071,31 @@
       <c r="A31" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="9"/>
+      <c r="L31" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M31" s="5"/>
@@ -4107,31 +4113,31 @@
       <c r="A32" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M32" s="5"/>
@@ -4159,29 +4165,29 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V33" s="11"/>
+      <c r="V33" s="13"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -4197,33 +4203,33 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11" t="s">
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="U34" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="13" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4241,35 +4247,35 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="U35" s="11" t="s">
+      <c r="U35" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="13"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -4285,33 +4291,33 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11" t="s">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -4327,33 +4333,33 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11" t="s">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V37" s="11"/>
+      <c r="V37" s="13"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
@@ -4369,33 +4375,33 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11" t="s">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V38" s="11"/>
+      <c r="V38" s="13"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -4411,33 +4417,33 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11" t="s">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V39" s="11"/>
+      <c r="V39" s="13"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="2" t="s">
@@ -4460,7 +4466,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4774,7 +4780,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4950,52 +4956,52 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="2"/>
       <c r="L50" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="O50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P50" s="5"/>
+      <c r="P50" s="2"/>
       <c r="Q50" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="V50" s="5"/>
+      <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -5180,26 +5186,26 @@
       <c r="B54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M54" s="5"/>
@@ -5217,33 +5223,33 @@
       <c r="A55" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="J55" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M55" s="5"/>
@@ -5261,31 +5267,31 @@
       <c r="A56" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M56" s="5"/>
@@ -5313,29 +5319,29 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11" t="s">
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11" t="s">
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V57" s="11"/>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -5351,35 +5357,35 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -5395,35 +5401,35 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V59" s="11"/>
+      <c r="U59" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -5439,35 +5445,35 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -5483,33 +5489,33 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11" t="s">
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -5525,33 +5531,33 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11" t="s">
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -5567,29 +5573,29 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11" t="s">
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11" t="s">
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="V63" s="11" t="s">
+      <c r="V63" s="13" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5607,35 +5613,35 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="Q64" s="11" t="s">
+      <c r="Q64" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="R64" s="11" t="s">
+      <c r="R64" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -5651,33 +5657,33 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -5693,50 +5699,50 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
       <c r="J67" s="6" t="s">
         <v>290</v>
       </c>
@@ -5746,18 +5752,18 @@
       <c r="L67" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
       <c r="U67" s="6" t="s">
         <v>417</v>
       </c>
@@ -5934,21 +5940,21 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="6" t="s">
         <v>292</v>
       </c>
@@ -5958,18 +5964,18 @@
       <c r="L71" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="6" t="s">
         <v>418</v>
       </c>
@@ -6166,7 +6172,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6358,22 +6364,22 @@
       <c r="B79" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L79" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M79" s="5"/>
@@ -6391,29 +6397,29 @@
       <c r="A80" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M80" s="5"/>
@@ -6431,33 +6437,33 @@
       <c r="A81" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M81" s="5"/>
@@ -6475,33 +6481,33 @@
       <c r="A82" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="L82" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M82" s="5"/>
@@ -6529,25 +6535,25 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M83" s="11" t="s">
+      <c r="M83" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11" t="s">
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V83" s="11"/>
+      <c r="V83" s="13"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -6563,29 +6569,29 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11" t="s">
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="11" t="s">
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V84" s="11"/>
+      <c r="V84" s="13"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -6601,35 +6607,35 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P85" s="11" t="s">
+      <c r="P85" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q85" s="11" t="s">
+      <c r="Q85" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="R85" s="11" t="s">
+      <c r="R85" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11" t="s">
+      <c r="S85" s="13"/>
+      <c r="T85" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="U85" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V85" s="11"/>
+      <c r="U85" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V85" s="13"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -6645,33 +6651,33 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P86" s="11" t="s">
+      <c r="P86" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="Q86" s="11" t="s">
+      <c r="Q86" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11" t="s">
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="U86" s="11" t="s">
+      <c r="U86" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="V86" s="11" t="s">
+      <c r="V86" s="13" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6689,29 +6695,29 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11" t="s">
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11" t="s">
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V87" s="11"/>
+      <c r="V87" s="13"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
@@ -6727,35 +6733,35 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O88" s="11" t="s">
+      <c r="O88" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="Q88" s="11" t="s">
+      <c r="Q88" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R88" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11" t="s">
+      <c r="S88" s="13"/>
+      <c r="T88" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="U88" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V88" s="11"/>
+      <c r="U88" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V88" s="13"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -6771,33 +6777,33 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="P89" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="Q89" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11" t="s">
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="U89" s="11" t="s">
+      <c r="U89" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="V89" s="11" t="s">
+      <c r="V89" s="13" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6815,35 +6821,35 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="Q90" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="R90" s="11" t="s">
+      <c r="R90" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11" t="s">
+      <c r="S90" s="13"/>
+      <c r="T90" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="U90" s="11" t="s">
+      <c r="U90" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="V90" s="11"/>
+      <c r="V90" s="13"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -6859,25 +6865,25 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="M91" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11" t="s">
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V91" s="11"/>
+      <c r="V91" s="13"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -6893,29 +6899,29 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11" t="s">
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11" t="s">
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V92" s="11"/>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -6931,35 +6937,35 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M93" s="11" t="s">
+      <c r="M93" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="N93" s="11" t="s">
+      <c r="N93" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O93" s="11" t="s">
+      <c r="O93" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P93" s="11" t="s">
+      <c r="P93" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q93" s="11" t="s">
+      <c r="Q93" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="R93" s="11" t="s">
+      <c r="R93" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11" t="s">
+      <c r="S93" s="13"/>
+      <c r="T93" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="U93" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V93" s="11"/>
+      <c r="U93" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V93" s="13"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6975,29 +6981,29 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="N94" s="11" t="s">
+      <c r="N94" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11" t="s">
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11" t="s">
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="V94" s="11" t="s">
+      <c r="V94" s="13" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7015,35 +7021,35 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P95" s="11" t="s">
+      <c r="P95" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q95" s="11" t="s">
+      <c r="Q95" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="R95" s="11" t="s">
+      <c r="R95" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11" t="s">
+      <c r="S95" s="13"/>
+      <c r="T95" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U95" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V95" s="11"/>
+      <c r="U95" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V95" s="13"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -7059,33 +7065,33 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P96" s="11" t="s">
+      <c r="P96" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q96" s="11" t="s">
+      <c r="Q96" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11" t="s">
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U96" s="11" t="s">
+      <c r="U96" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="V96" s="11" t="s">
+      <c r="V96" s="13" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7103,29 +7109,29 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11" t="s">
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11" t="s">
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="V97" s="11" t="s">
+      <c r="V97" s="13" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7143,35 +7149,35 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q98" s="11" t="s">
+      <c r="Q98" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="R98" s="11" t="s">
+      <c r="R98" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11" t="s">
+      <c r="S98" s="13"/>
+      <c r="T98" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="U98" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V98" s="11"/>
+      <c r="U98" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V98" s="13"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -7187,33 +7193,33 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q99" s="11" t="s">
+      <c r="Q99" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11" t="s">
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="U99" s="11" t="s">
+      <c r="U99" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="V99" s="11" t="s">
+      <c r="V99" s="13" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7231,25 +7237,25 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M100" s="11" t="s">
+      <c r="M100" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="N100" s="11" t="s">
+      <c r="N100" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11" t="s">
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="V100" s="11" t="s">
+      <c r="V100" s="13" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7267,29 +7273,29 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11" t="s">
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11" t="s">
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V101" s="11"/>
+      <c r="V101" s="13"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -7305,35 +7311,35 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="P102" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q102" s="11" t="s">
+      <c r="Q102" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="R102" s="11" t="s">
+      <c r="R102" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11" t="s">
+      <c r="S102" s="13"/>
+      <c r="T102" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="U102" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V102" s="11"/>
+      <c r="U102" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -7349,33 +7355,33 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="Q103" s="11" t="s">
+      <c r="Q103" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11" t="s">
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="U103" s="11" t="s">
+      <c r="U103" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="V103" s="11" t="s">
+      <c r="V103" s="13" t="s">
         <v>445</v>
       </c>
     </row>
@@ -7393,25 +7399,25 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11" t="s">
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V104" s="11"/>
+      <c r="V104" s="13"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -7427,29 +7433,29 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11" t="s">
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11" t="s">
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V105" s="11"/>
+      <c r="V105" s="13"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -7465,35 +7471,35 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="N106" s="11" t="s">
+      <c r="N106" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q106" s="11" t="s">
+      <c r="Q106" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="R106" s="11" t="s">
+      <c r="R106" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11" t="s">
+      <c r="S106" s="13"/>
+      <c r="T106" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="U106" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V106" s="11"/>
+      <c r="U106" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V106" s="13"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7509,35 +7515,35 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="R107" s="11" t="s">
+      <c r="R107" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="U107" s="11" t="s">
+      <c r="U107" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="V107" s="11"/>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7553,33 +7559,33 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11" t="s">
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11" t="s">
+      <c r="S108" s="13"/>
+      <c r="T108" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="U108" s="11" t="s">
+      <c r="U108" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V108" s="11"/>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -7595,29 +7601,29 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11" t="s">
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11" t="s">
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="V109" s="11" t="s">
+      <c r="V109" s="13" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7635,35 +7641,35 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q110" s="11" t="s">
+      <c r="Q110" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="R110" s="11" t="s">
+      <c r="R110" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11" t="s">
+      <c r="S110" s="13"/>
+      <c r="T110" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="U110" s="11" t="s">
+      <c r="U110" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="V110" s="11"/>
+      <c r="V110" s="13"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7679,33 +7685,33 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="11" t="s">
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11" t="s">
+      <c r="S111" s="13"/>
+      <c r="T111" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="U111" s="11" t="s">
+      <c r="U111" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="V111" s="11"/>
+      <c r="V111" s="13"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7721,33 +7727,33 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="P112" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11" t="s">
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11" t="s">
+      <c r="S112" s="13"/>
+      <c r="T112" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="U112" s="11" t="s">
+      <c r="U112" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="V112" s="11"/>
+      <c r="V112" s="13"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -7763,33 +7769,33 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11" t="s">
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11" t="s">
+      <c r="S113" s="13"/>
+      <c r="T113" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="U113" s="11" t="s">
+      <c r="U113" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="V113" s="11"/>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -7805,33 +7811,33 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N114" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11" t="s">
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11" t="s">
+      <c r="S114" s="13"/>
+      <c r="T114" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="U114" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="V114" s="11"/>
+      <c r="V114" s="13"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="2" t="s">
@@ -7856,7 +7862,7 @@
         <v>310</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7990,26 +7996,26 @@
       <c r="B118" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
+      <c r="E118" s="9"/>
+      <c r="F118" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="K118" s="8" t="s">
+      <c r="K118" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="L118" s="9" t="s">
+      <c r="L118" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M118" s="5"/>
@@ -8027,33 +8033,33 @@
       <c r="A119" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8" t="s">
+      <c r="H119" s="9"/>
+      <c r="I119" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J119" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K119" s="8"/>
-      <c r="L119" s="9" t="s">
+      <c r="J119" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K119" s="9"/>
+      <c r="L119" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M119" s="5"/>
@@ -8071,33 +8077,33 @@
       <c r="A120" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8" t="s">
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J120" s="8" t="s">
+      <c r="J120" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K120" s="8" t="s">
+      <c r="K120" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L120" s="9" t="s">
+      <c r="L120" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M120" s="5"/>
@@ -8118,22 +8124,22 @@
       <c r="B121" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8" t="s">
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K121" s="8" t="s">
+      <c r="K121" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="L121" s="9" t="s">
+      <c r="L121" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M121" s="5"/>
@@ -8151,27 +8157,27 @@
       <c r="A122" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8" t="s">
+      <c r="E122" s="9"/>
+      <c r="F122" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8" t="s">
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K122" s="8"/>
-      <c r="L122" s="9" t="s">
+      <c r="K122" s="9"/>
+      <c r="L122" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M122" s="5"/>
@@ -8189,33 +8195,33 @@
       <c r="A123" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8" t="s">
+      <c r="H123" s="9"/>
+      <c r="I123" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J123" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K123" s="8"/>
-      <c r="L123" s="9" t="s">
+      <c r="J123" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K123" s="9"/>
+      <c r="L123" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M123" s="5"/>
@@ -8233,33 +8239,33 @@
       <c r="A124" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8" t="s">
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="J124" s="8" t="s">
+      <c r="J124" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="L124" s="9" t="s">
+      <c r="L124" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M124" s="5"/>
@@ -8277,33 +8283,33 @@
       <c r="A125" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8" t="s">
+      <c r="H125" s="9"/>
+      <c r="I125" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J125" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K125" s="8"/>
-      <c r="L125" s="9" t="s">
+      <c r="J125" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K125" s="9"/>
+      <c r="L125" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M125" s="5"/>
@@ -8324,20 +8330,20 @@
       <c r="B126" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8" t="s">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K126" s="8"/>
-      <c r="L126" s="9" t="s">
+      <c r="K126" s="9"/>
+      <c r="L126" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M126" s="5"/>
@@ -8355,27 +8361,27 @@
       <c r="A127" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="s">
+      <c r="E127" s="9"/>
+      <c r="F127" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8" t="s">
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K127" s="8"/>
-      <c r="L127" s="9" t="s">
+      <c r="K127" s="9"/>
+      <c r="L127" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M127" s="5"/>
@@ -8393,33 +8399,33 @@
       <c r="A128" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8" t="s">
+      <c r="H128" s="9"/>
+      <c r="I128" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J128" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K128" s="8"/>
-      <c r="L128" s="9" t="s">
+      <c r="J128" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K128" s="9"/>
+      <c r="L128" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M128" s="5"/>
@@ -8437,33 +8443,33 @@
       <c r="A129" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G129" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8" t="s">
+      <c r="H129" s="9"/>
+      <c r="I129" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="J129" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K129" s="8"/>
-      <c r="L129" s="9" t="s">
+      <c r="J129" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K129" s="9"/>
+      <c r="L129" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M129" s="5"/>
@@ -8484,22 +8490,22 @@
       <c r="B130" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8" t="s">
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="K130" s="8" t="s">
+      <c r="K130" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="L130" s="9" t="s">
+      <c r="L130" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M130" s="5"/>
@@ -8517,27 +8523,27 @@
       <c r="A131" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8" t="s">
+      <c r="E131" s="9"/>
+      <c r="F131" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8" t="s">
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K131" s="8"/>
-      <c r="L131" s="9" t="s">
+      <c r="K131" s="9"/>
+      <c r="L131" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M131" s="5"/>
@@ -8555,33 +8561,33 @@
       <c r="A132" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G132" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8" t="s">
+      <c r="H132" s="9"/>
+      <c r="I132" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J132" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K132" s="8"/>
-      <c r="L132" s="9" t="s">
+      <c r="J132" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K132" s="9"/>
+      <c r="L132" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M132" s="5"/>
@@ -8599,31 +8605,31 @@
       <c r="A133" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8" t="s">
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J133" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K133" s="8"/>
-      <c r="L133" s="9" t="s">
+      <c r="J133" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K133" s="9"/>
+      <c r="L133" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M133" s="5"/>
@@ -8644,22 +8650,22 @@
       <c r="B134" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8" t="s">
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="K134" s="8" t="s">
+      <c r="K134" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="L134" s="9" t="s">
+      <c r="L134" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M134" s="5"/>
@@ -8677,27 +8683,27 @@
       <c r="A135" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
+      <c r="E135" s="9"/>
+      <c r="F135" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8" t="s">
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K135" s="8"/>
-      <c r="L135" s="9" t="s">
+      <c r="K135" s="9"/>
+      <c r="L135" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M135" s="5"/>
@@ -8715,33 +8721,33 @@
       <c r="A136" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F136" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G136" s="8" t="s">
+      <c r="G136" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8" t="s">
+      <c r="H136" s="9"/>
+      <c r="I136" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J136" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K136" s="8"/>
-      <c r="L136" s="9" t="s">
+      <c r="J136" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K136" s="9"/>
+      <c r="L136" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M136" s="5"/>
@@ -8759,27 +8765,27 @@
       <c r="A137" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
+      <c r="E137" s="9"/>
+      <c r="F137" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8" t="s">
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K137" s="8"/>
-      <c r="L137" s="9" t="s">
+      <c r="K137" s="9"/>
+      <c r="L137" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M137" s="5"/>
@@ -8797,33 +8803,33 @@
       <c r="A138" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G138" s="8" t="s">
+      <c r="G138" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8" t="s">
+      <c r="H138" s="9"/>
+      <c r="I138" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J138" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K138" s="8"/>
-      <c r="L138" s="9" t="s">
+      <c r="J138" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K138" s="9"/>
+      <c r="L138" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M138" s="5"/>
@@ -8841,31 +8847,31 @@
       <c r="A139" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8" t="s">
+      <c r="F139" s="9"/>
+      <c r="G139" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8" t="s">
+      <c r="H139" s="9"/>
+      <c r="I139" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="J139" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K139" s="8"/>
-      <c r="L139" s="9" t="s">
+      <c r="J139" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K139" s="9"/>
+      <c r="L139" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M139" s="5"/>
@@ -8886,20 +8892,20 @@
       <c r="B140" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8" t="s">
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K140" s="8"/>
-      <c r="L140" s="9" t="s">
+      <c r="K140" s="9"/>
+      <c r="L140" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M140" s="5"/>
@@ -8917,27 +8923,27 @@
       <c r="A141" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="s">
+      <c r="E141" s="9"/>
+      <c r="F141" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8" t="s">
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K141" s="8"/>
-      <c r="L141" s="9" t="s">
+      <c r="K141" s="9"/>
+      <c r="L141" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M141" s="5"/>
@@ -8955,33 +8961,33 @@
       <c r="A142" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8" t="s">
+      <c r="H142" s="9"/>
+      <c r="I142" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J142" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K142" s="8"/>
-      <c r="L142" s="9" t="s">
+      <c r="J142" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K142" s="9"/>
+      <c r="L142" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M142" s="5"/>
@@ -8999,33 +9005,33 @@
       <c r="A143" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E143" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G143" s="8" t="s">
+      <c r="G143" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8" t="s">
+      <c r="H143" s="9"/>
+      <c r="I143" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="J143" s="8" t="s">
+      <c r="J143" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="K143" s="8"/>
-      <c r="L143" s="9" t="s">
+      <c r="K143" s="9"/>
+      <c r="L143" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M143" s="5"/>
@@ -9043,31 +9049,31 @@
       <c r="A144" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8" t="s">
+      <c r="F144" s="9"/>
+      <c r="G144" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8" t="s">
+      <c r="H144" s="9"/>
+      <c r="I144" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J144" s="8" t="s">
+      <c r="J144" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="K144" s="8"/>
-      <c r="L144" s="9" t="s">
+      <c r="K144" s="9"/>
+      <c r="L144" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M144" s="5"/>
@@ -9085,31 +9091,31 @@
       <c r="A145" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8" t="s">
+      <c r="F145" s="9"/>
+      <c r="G145" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8" t="s">
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="J145" s="8" t="s">
+      <c r="J145" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="K145" s="8"/>
-      <c r="L145" s="9" t="s">
+      <c r="K145" s="9"/>
+      <c r="L145" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M145" s="5"/>
@@ -9127,33 +9133,33 @@
       <c r="A146" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8" t="s">
+      <c r="F146" s="9"/>
+      <c r="G146" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8" t="s">
+      <c r="H146" s="9"/>
+      <c r="I146" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="J146" s="8" t="s">
+      <c r="J146" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="K146" s="8" t="s">
+      <c r="K146" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="L146" s="9" t="s">
+      <c r="L146" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M146" s="5"/>
@@ -9168,21 +9174,21 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
       <c r="J147" s="6" t="s">
         <v>301</v>
       </c>
@@ -9192,18 +9198,18 @@
       <c r="L147" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="M147" s="5" t="s">
+      <c r="M147" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
       <c r="U147" s="6" t="s">
         <v>434</v>
       </c>
@@ -9502,22 +9508,22 @@
       <c r="B153" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8" t="s">
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="K153" s="8" t="s">
+      <c r="K153" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="L153" s="9" t="s">
+      <c r="L153" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M153" s="5"/>
@@ -9535,27 +9541,27 @@
       <c r="A154" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8" t="s">
+      <c r="E154" s="9"/>
+      <c r="F154" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8" t="s">
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K154" s="8"/>
-      <c r="L154" s="9" t="s">
+      <c r="K154" s="9"/>
+      <c r="L154" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M154" s="5"/>
@@ -9573,33 +9579,33 @@
       <c r="A155" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F155" s="8" t="s">
+      <c r="F155" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G155" s="8" t="s">
+      <c r="G155" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8" t="s">
+      <c r="H155" s="9"/>
+      <c r="I155" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J155" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K155" s="8"/>
-      <c r="L155" s="9" t="s">
+      <c r="J155" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K155" s="9"/>
+      <c r="L155" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M155" s="5"/>
@@ -9617,33 +9623,33 @@
       <c r="A156" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G156" s="8" t="s">
+      <c r="G156" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8" t="s">
+      <c r="H156" s="9"/>
+      <c r="I156" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="J156" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K156" s="8"/>
-      <c r="L156" s="9" t="s">
+      <c r="J156" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K156" s="9"/>
+      <c r="L156" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M156" s="5"/>
@@ -9661,31 +9667,31 @@
       <c r="A157" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8" t="s">
+      <c r="F157" s="9"/>
+      <c r="G157" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8" t="s">
+      <c r="H157" s="9"/>
+      <c r="I157" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="J157" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K157" s="8"/>
-      <c r="L157" s="9" t="s">
+      <c r="J157" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K157" s="9"/>
+      <c r="L157" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M157" s="5"/>
@@ -9703,31 +9709,31 @@
       <c r="A158" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E158" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8" t="s">
+      <c r="F158" s="9"/>
+      <c r="G158" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8" t="s">
+      <c r="H158" s="9"/>
+      <c r="I158" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="J158" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K158" s="8"/>
-      <c r="L158" s="9" t="s">
+      <c r="J158" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K158" s="9"/>
+      <c r="L158" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M158" s="5"/>
@@ -9748,22 +9754,22 @@
       <c r="B159" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8" t="s">
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K159" s="8" t="s">
+      <c r="K159" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="L159" s="9" t="s">
+      <c r="L159" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M159" s="5"/>
@@ -9781,27 +9787,27 @@
       <c r="A160" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8" t="s">
+      <c r="E160" s="9"/>
+      <c r="F160" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8" t="s">
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K160" s="8"/>
-      <c r="L160" s="9" t="s">
+      <c r="K160" s="9"/>
+      <c r="L160" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M160" s="5"/>
@@ -9819,33 +9825,33 @@
       <c r="A161" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G161" s="8" t="s">
+      <c r="G161" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8" t="s">
+      <c r="H161" s="9"/>
+      <c r="I161" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J161" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K161" s="8"/>
-      <c r="L161" s="9" t="s">
+      <c r="J161" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K161" s="9"/>
+      <c r="L161" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M161" s="5"/>
@@ -9866,26 +9872,26 @@
       <c r="B162" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8" t="s">
+      <c r="E162" s="9"/>
+      <c r="F162" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8" t="s">
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="K162" s="8" t="s">
+      <c r="K162" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="L162" s="9" t="s">
+      <c r="L162" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M162" s="5"/>
@@ -9903,33 +9909,33 @@
       <c r="A163" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="E163" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F163" s="8" t="s">
+      <c r="F163" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G163" s="8" t="s">
+      <c r="G163" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8" t="s">
+      <c r="H163" s="9"/>
+      <c r="I163" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J163" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K163" s="8"/>
-      <c r="L163" s="9" t="s">
+      <c r="J163" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K163" s="9"/>
+      <c r="L163" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M163" s="5"/>
@@ -9947,33 +9953,33 @@
       <c r="A164" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8" t="s">
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="J164" s="8" t="s">
+      <c r="J164" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K164" s="8" t="s">
+      <c r="K164" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L164" s="9" t="s">
+      <c r="L164" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M164" s="5"/>
@@ -9994,22 +10000,22 @@
       <c r="B165" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8" t="s">
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="K165" s="8" t="s">
+      <c r="K165" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="L165" s="9" t="s">
+      <c r="L165" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M165" s="5"/>
@@ -10027,27 +10033,27 @@
       <c r="A166" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8" t="s">
+      <c r="E166" s="9"/>
+      <c r="F166" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8" t="s">
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K166" s="8"/>
-      <c r="L166" s="9" t="s">
+      <c r="K166" s="9"/>
+      <c r="L166" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M166" s="5"/>
@@ -10065,33 +10071,33 @@
       <c r="A167" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G167" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8" t="s">
+      <c r="H167" s="9"/>
+      <c r="I167" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="J167" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K167" s="8"/>
-      <c r="L167" s="9" t="s">
+      <c r="J167" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K167" s="9"/>
+      <c r="L167" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M167" s="5"/>
@@ -10109,33 +10115,33 @@
       <c r="A168" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F168" s="8" t="s">
+      <c r="F168" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8" t="s">
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="J168" s="8" t="s">
+      <c r="J168" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="K168" s="8" t="s">
+      <c r="K168" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="L168" s="9" t="s">
+      <c r="L168" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M168" s="5"/>
@@ -10153,33 +10159,33 @@
       <c r="A169" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8" t="s">
+      <c r="H169" s="9"/>
+      <c r="I169" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="J169" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K169" s="8"/>
-      <c r="L169" s="9" t="s">
+      <c r="J169" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K169" s="9"/>
+      <c r="L169" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M169" s="5"/>
@@ -10200,22 +10206,22 @@
       <c r="B170" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8" t="s">
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="K170" s="8" t="s">
+      <c r="K170" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="L170" s="9" t="s">
+      <c r="L170" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M170" s="5"/>
@@ -10233,27 +10239,27 @@
       <c r="A171" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8" t="s">
+      <c r="E171" s="9"/>
+      <c r="F171" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8" t="s">
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K171" s="8"/>
-      <c r="L171" s="9" t="s">
+      <c r="K171" s="9"/>
+      <c r="L171" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M171" s="5"/>
@@ -10271,33 +10277,33 @@
       <c r="A172" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F172" s="8" t="s">
+      <c r="F172" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G172" s="8" t="s">
+      <c r="G172" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8" t="s">
+      <c r="H172" s="9"/>
+      <c r="I172" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J172" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K172" s="8"/>
-      <c r="L172" s="9" t="s">
+      <c r="J172" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K172" s="9"/>
+      <c r="L172" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M172" s="5"/>
@@ -10315,31 +10321,31 @@
       <c r="A173" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F173" s="8" t="s">
+      <c r="F173" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8" t="s">
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J173" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K173" s="8"/>
-      <c r="L173" s="9" t="s">
+      <c r="J173" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K173" s="9"/>
+      <c r="L173" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M173" s="5"/>
@@ -10360,22 +10366,22 @@
       <c r="B174" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8" t="s">
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="K174" s="8" t="s">
+      <c r="K174" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="L174" s="9" t="s">
+      <c r="L174" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M174" s="5"/>
@@ -10393,27 +10399,27 @@
       <c r="A175" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8" t="s">
+      <c r="E175" s="9"/>
+      <c r="F175" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8" t="s">
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K175" s="8"/>
-      <c r="L175" s="9" t="s">
+      <c r="K175" s="9"/>
+      <c r="L175" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M175" s="5"/>
@@ -10431,33 +10437,33 @@
       <c r="A176" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E176" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F176" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G176" s="8" t="s">
+      <c r="G176" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8" t="s">
+      <c r="H176" s="9"/>
+      <c r="I176" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J176" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K176" s="8"/>
-      <c r="L176" s="9" t="s">
+      <c r="J176" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K176" s="9"/>
+      <c r="L176" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M176" s="5"/>
@@ -10475,27 +10481,27 @@
       <c r="A177" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8" t="s">
+      <c r="E177" s="9"/>
+      <c r="F177" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8" t="s">
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K177" s="8"/>
-      <c r="L177" s="9" t="s">
+      <c r="K177" s="9"/>
+      <c r="L177" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M177" s="5"/>
@@ -10513,33 +10519,33 @@
       <c r="A178" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F178" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G178" s="8" t="s">
+      <c r="G178" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8" t="s">
+      <c r="H178" s="9"/>
+      <c r="I178" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J178" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K178" s="8"/>
-      <c r="L178" s="9" t="s">
+      <c r="J178" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K178" s="9"/>
+      <c r="L178" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M178" s="5"/>
@@ -10557,31 +10563,31 @@
       <c r="A179" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8" t="s">
+      <c r="F179" s="9"/>
+      <c r="G179" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8" t="s">
+      <c r="H179" s="9"/>
+      <c r="I179" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="J179" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K179" s="8"/>
-      <c r="L179" s="9" t="s">
+      <c r="J179" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K179" s="9"/>
+      <c r="L179" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M179" s="5"/>
@@ -10602,22 +10608,22 @@
       <c r="B180" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="8" t="s">
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="K180" s="8" t="s">
+      <c r="K180" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="L180" s="9" t="s">
+      <c r="L180" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M180" s="5"/>
@@ -10635,27 +10641,27 @@
       <c r="A181" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8" t="s">
+      <c r="E181" s="9"/>
+      <c r="F181" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8" t="s">
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K181" s="8"/>
-      <c r="L181" s="9" t="s">
+      <c r="K181" s="9"/>
+      <c r="L181" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M181" s="5"/>
@@ -10673,33 +10679,33 @@
       <c r="A182" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D182" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F182" s="8" t="s">
+      <c r="F182" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G182" s="8" t="s">
+      <c r="G182" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8" t="s">
+      <c r="H182" s="9"/>
+      <c r="I182" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J182" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K182" s="8"/>
-      <c r="L182" s="9" t="s">
+      <c r="J182" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K182" s="9"/>
+      <c r="L182" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M182" s="5"/>
@@ -10717,33 +10723,33 @@
       <c r="A183" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="E183" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F183" s="8" t="s">
+      <c r="F183" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G183" s="8" t="s">
+      <c r="G183" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8" t="s">
+      <c r="H183" s="9"/>
+      <c r="I183" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="J183" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K183" s="8"/>
-      <c r="L183" s="9" t="s">
+      <c r="J183" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K183" s="9"/>
+      <c r="L183" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M183" s="5"/>
@@ -10761,31 +10767,31 @@
       <c r="A184" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8" t="s">
+      <c r="F184" s="9"/>
+      <c r="G184" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8" t="s">
+      <c r="H184" s="9"/>
+      <c r="I184" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="J184" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K184" s="8"/>
-      <c r="L184" s="9" t="s">
+      <c r="J184" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K184" s="9"/>
+      <c r="L184" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M184" s="5"/>
@@ -10806,22 +10812,22 @@
       <c r="B185" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8" t="s">
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K185" s="8" t="s">
+      <c r="K185" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="L185" s="9" t="s">
+      <c r="L185" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M185" s="5"/>
@@ -10839,27 +10845,27 @@
       <c r="A186" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D186" s="8" t="s">
+      <c r="D186" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8" t="s">
+      <c r="E186" s="9"/>
+      <c r="F186" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8" t="s">
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K186" s="8"/>
-      <c r="L186" s="9" t="s">
+      <c r="K186" s="9"/>
+      <c r="L186" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M186" s="5"/>
@@ -10877,33 +10883,33 @@
       <c r="A187" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="E187" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F187" s="8" t="s">
+      <c r="F187" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G187" s="8" t="s">
+      <c r="G187" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8" t="s">
+      <c r="H187" s="9"/>
+      <c r="I187" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J187" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K187" s="8"/>
-      <c r="L187" s="9" t="s">
+      <c r="J187" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K187" s="9"/>
+      <c r="L187" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M187" s="5"/>
@@ -10924,24 +10930,24 @@
       <c r="B188" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8" t="s">
+      <c r="E188" s="9"/>
+      <c r="F188" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8" t="s">
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K188" s="8"/>
-      <c r="L188" s="9" t="s">
+      <c r="K188" s="9"/>
+      <c r="L188" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M188" s="5"/>
@@ -10959,33 +10965,33 @@
       <c r="A189" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D189" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E189" s="8" t="s">
+      <c r="E189" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F189" s="8" t="s">
+      <c r="F189" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G189" s="8" t="s">
+      <c r="G189" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8" t="s">
+      <c r="H189" s="9"/>
+      <c r="I189" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J189" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K189" s="8"/>
-      <c r="L189" s="9" t="s">
+      <c r="J189" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K189" s="9"/>
+      <c r="L189" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M189" s="5"/>
@@ -11003,33 +11009,33 @@
       <c r="A190" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D190" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E190" s="8" t="s">
+      <c r="E190" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F190" s="8" t="s">
+      <c r="F190" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8" t="s">
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="J190" s="8" t="s">
+      <c r="J190" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K190" s="8" t="s">
+      <c r="K190" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L190" s="9" t="s">
+      <c r="L190" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M190" s="5"/>
@@ -11050,20 +11056,20 @@
       <c r="B191" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8" t="s">
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K191" s="8"/>
-      <c r="L191" s="9" t="s">
+      <c r="K191" s="9"/>
+      <c r="L191" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M191" s="5"/>
@@ -11081,27 +11087,27 @@
       <c r="A192" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8" t="s">
+      <c r="E192" s="9"/>
+      <c r="F192" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8"/>
-      <c r="J192" s="8" t="s">
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K192" s="8"/>
-      <c r="L192" s="9" t="s">
+      <c r="K192" s="9"/>
+      <c r="L192" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M192" s="5"/>
@@ -11119,33 +11125,33 @@
       <c r="A193" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="E193" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="F193" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G193" s="8" t="s">
+      <c r="G193" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8" t="s">
+      <c r="H193" s="9"/>
+      <c r="I193" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="J193" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K193" s="8"/>
-      <c r="L193" s="9" t="s">
+      <c r="J193" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K193" s="9"/>
+      <c r="L193" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M193" s="5"/>
@@ -11163,33 +11169,33 @@
       <c r="A194" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E194" s="8" t="s">
+      <c r="E194" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F194" s="8" t="s">
+      <c r="F194" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G194" s="8" t="s">
+      <c r="G194" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8" t="s">
+      <c r="H194" s="9"/>
+      <c r="I194" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J194" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K194" s="8"/>
-      <c r="L194" s="9" t="s">
+      <c r="J194" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K194" s="9"/>
+      <c r="L194" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M194" s="5"/>
@@ -11207,27 +11213,27 @@
       <c r="A195" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8" t="s">
+      <c r="E195" s="9"/>
+      <c r="F195" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
-      <c r="J195" s="8" t="s">
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K195" s="8"/>
-      <c r="L195" s="9" t="s">
+      <c r="K195" s="9"/>
+      <c r="L195" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M195" s="5"/>
@@ -11245,31 +11251,31 @@
       <c r="A196" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D196" s="8" t="s">
+      <c r="D196" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E196" s="8" t="s">
+      <c r="E196" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F196" s="8" t="s">
+      <c r="F196" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8" t="s">
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J196" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K196" s="8"/>
-      <c r="L196" s="9" t="s">
+      <c r="J196" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K196" s="9"/>
+      <c r="L196" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M196" s="5"/>
@@ -11290,22 +11296,22 @@
       <c r="B197" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8" t="s">
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K197" s="8" t="s">
+      <c r="K197" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="L197" s="9" t="s">
+      <c r="L197" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M197" s="5"/>
@@ -11323,27 +11329,27 @@
       <c r="A198" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8" t="s">
+      <c r="E198" s="9"/>
+      <c r="F198" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8" t="s">
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K198" s="8"/>
-      <c r="L198" s="9" t="s">
+      <c r="K198" s="9"/>
+      <c r="L198" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M198" s="5"/>
@@ -11361,33 +11367,33 @@
       <c r="A199" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="E199" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F199" s="8" t="s">
+      <c r="F199" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G199" s="8" t="s">
+      <c r="G199" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8" t="s">
+      <c r="H199" s="9"/>
+      <c r="I199" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J199" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K199" s="8"/>
-      <c r="L199" s="9" t="s">
+      <c r="J199" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K199" s="9"/>
+      <c r="L199" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M199" s="5"/>
@@ -11408,24 +11414,24 @@
       <c r="B200" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8" t="s">
+      <c r="E200" s="9"/>
+      <c r="F200" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="8" t="s">
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K200" s="8"/>
-      <c r="L200" s="9" t="s">
+      <c r="K200" s="9"/>
+      <c r="L200" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M200" s="5"/>
@@ -11443,33 +11449,33 @@
       <c r="A201" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E201" s="8" t="s">
+      <c r="E201" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F201" s="8" t="s">
+      <c r="F201" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G201" s="8" t="s">
+      <c r="G201" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8" t="s">
+      <c r="H201" s="9"/>
+      <c r="I201" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J201" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K201" s="8"/>
-      <c r="L201" s="9" t="s">
+      <c r="J201" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K201" s="9"/>
+      <c r="L201" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M201" s="5"/>
@@ -11487,33 +11493,33 @@
       <c r="A202" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D202" s="8" t="s">
+      <c r="D202" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E202" s="8" t="s">
+      <c r="E202" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F202" s="8" t="s">
+      <c r="F202" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8" t="s">
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="J202" s="8" t="s">
+      <c r="J202" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K202" s="8" t="s">
+      <c r="K202" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L202" s="9" t="s">
+      <c r="L202" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M202" s="5"/>
@@ -11534,20 +11540,20 @@
       <c r="B203" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="8" t="s">
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K203" s="8"/>
-      <c r="L203" s="9" t="s">
+      <c r="K203" s="9"/>
+      <c r="L203" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M203" s="5"/>
@@ -11565,27 +11571,27 @@
       <c r="A204" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D204" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8" t="s">
+      <c r="E204" s="9"/>
+      <c r="F204" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
-      <c r="J204" s="8" t="s">
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K204" s="8"/>
-      <c r="L204" s="9" t="s">
+      <c r="K204" s="9"/>
+      <c r="L204" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M204" s="5"/>
@@ -11603,33 +11609,33 @@
       <c r="A205" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D205" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E205" s="8" t="s">
+      <c r="E205" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F205" s="8" t="s">
+      <c r="F205" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G205" s="8" t="s">
+      <c r="G205" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8" t="s">
+      <c r="H205" s="9"/>
+      <c r="I205" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J205" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K205" s="8"/>
-      <c r="L205" s="9" t="s">
+      <c r="J205" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K205" s="9"/>
+      <c r="L205" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M205" s="5"/>
@@ -11647,27 +11653,27 @@
       <c r="A206" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="D206" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8" t="s">
+      <c r="E206" s="9"/>
+      <c r="F206" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8" t="s">
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K206" s="8"/>
-      <c r="L206" s="9" t="s">
+      <c r="K206" s="9"/>
+      <c r="L206" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M206" s="5"/>
@@ -11685,31 +11691,31 @@
       <c r="A207" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E207" s="8" t="s">
+      <c r="E207" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F207" s="8" t="s">
+      <c r="F207" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8" t="s">
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="J207" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K207" s="8"/>
-      <c r="L207" s="9" t="s">
+      <c r="J207" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K207" s="9"/>
+      <c r="L207" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M207" s="5"/>
@@ -11730,20 +11736,20 @@
       <c r="B208" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8" t="s">
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K208" s="8"/>
-      <c r="L208" s="9" t="s">
+      <c r="K208" s="9"/>
+      <c r="L208" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M208" s="5"/>
@@ -11761,27 +11767,27 @@
       <c r="A209" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D209" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8" t="s">
+      <c r="E209" s="9"/>
+      <c r="F209" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-      <c r="J209" s="8" t="s">
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K209" s="8"/>
-      <c r="L209" s="9" t="s">
+      <c r="K209" s="9"/>
+      <c r="L209" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M209" s="5"/>
@@ -11799,33 +11805,33 @@
       <c r="A210" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D210" s="8" t="s">
+      <c r="D210" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E210" s="8" t="s">
+      <c r="E210" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F210" s="8" t="s">
+      <c r="F210" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G210" s="8" t="s">
+      <c r="G210" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8" t="s">
+      <c r="H210" s="9"/>
+      <c r="I210" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="J210" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K210" s="8"/>
-      <c r="L210" s="9" t="s">
+      <c r="J210" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K210" s="9"/>
+      <c r="L210" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M210" s="5"/>
@@ -11843,33 +11849,33 @@
       <c r="A211" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D211" s="8" t="s">
+      <c r="D211" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E211" s="8" t="s">
+      <c r="E211" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F211" s="8" t="s">
+      <c r="F211" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G211" s="8" t="s">
+      <c r="G211" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8" t="s">
+      <c r="H211" s="9"/>
+      <c r="I211" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J211" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K211" s="8"/>
-      <c r="L211" s="9" t="s">
+      <c r="J211" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K211" s="9"/>
+      <c r="L211" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M211" s="5"/>
@@ -11887,31 +11893,31 @@
       <c r="A212" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E212" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8" t="s">
+      <c r="F212" s="9"/>
+      <c r="G212" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8" t="s">
+      <c r="H212" s="9"/>
+      <c r="I212" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="J212" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K212" s="8"/>
-      <c r="L212" s="9" t="s">
+      <c r="J212" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K212" s="9"/>
+      <c r="L212" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M212" s="5"/>
@@ -11929,27 +11935,27 @@
       <c r="A213" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D213" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8" t="s">
+      <c r="E213" s="9"/>
+      <c r="F213" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
-      <c r="J213" s="8" t="s">
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K213" s="8"/>
-      <c r="L213" s="9" t="s">
+      <c r="K213" s="9"/>
+      <c r="L213" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M213" s="5"/>
@@ -11967,31 +11973,31 @@
       <c r="A214" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D214" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E214" s="8" t="s">
+      <c r="E214" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F214" s="8" t="s">
+      <c r="F214" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8" t="s">
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J214" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K214" s="8"/>
-      <c r="L214" s="9" t="s">
+      <c r="J214" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K214" s="9"/>
+      <c r="L214" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M214" s="5"/>
@@ -12012,22 +12018,22 @@
       <c r="B215" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8" t="s">
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K215" s="8" t="s">
+      <c r="K215" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="L215" s="9" t="s">
+      <c r="L215" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M215" s="5"/>
@@ -12045,27 +12051,27 @@
       <c r="A216" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D216" s="8" t="s">
+      <c r="D216" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8" t="s">
+      <c r="E216" s="9"/>
+      <c r="F216" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8" t="s">
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K216" s="8"/>
-      <c r="L216" s="9" t="s">
+      <c r="K216" s="9"/>
+      <c r="L216" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M216" s="5"/>
@@ -12083,33 +12089,33 @@
       <c r="A217" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E217" s="8" t="s">
+      <c r="E217" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F217" s="8" t="s">
+      <c r="F217" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G217" s="8" t="s">
+      <c r="G217" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8" t="s">
+      <c r="H217" s="9"/>
+      <c r="I217" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J217" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K217" s="8"/>
-      <c r="L217" s="9" t="s">
+      <c r="J217" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K217" s="9"/>
+      <c r="L217" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M217" s="5"/>
@@ -12130,24 +12136,24 @@
       <c r="B218" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8" t="s">
+      <c r="E218" s="9"/>
+      <c r="F218" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
-      <c r="J218" s="8" t="s">
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K218" s="8"/>
-      <c r="L218" s="9" t="s">
+      <c r="K218" s="9"/>
+      <c r="L218" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M218" s="5"/>
@@ -12165,33 +12171,33 @@
       <c r="A219" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E219" s="8" t="s">
+      <c r="E219" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F219" s="8" t="s">
+      <c r="F219" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G219" s="8" t="s">
+      <c r="G219" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8" t="s">
+      <c r="H219" s="9"/>
+      <c r="I219" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J219" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K219" s="8"/>
-      <c r="L219" s="9" t="s">
+      <c r="J219" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K219" s="9"/>
+      <c r="L219" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M219" s="5"/>
@@ -12209,33 +12215,33 @@
       <c r="A220" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D220" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E220" s="8" t="s">
+      <c r="E220" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F220" s="8" t="s">
+      <c r="F220" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8" t="s">
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="J220" s="8" t="s">
+      <c r="J220" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K220" s="8" t="s">
+      <c r="K220" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L220" s="9" t="s">
+      <c r="L220" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M220" s="5"/>
@@ -12256,20 +12262,20 @@
       <c r="B221" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
-      <c r="J221" s="8" t="s">
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K221" s="8"/>
-      <c r="L221" s="9" t="s">
+      <c r="K221" s="9"/>
+      <c r="L221" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M221" s="5"/>
@@ -12287,27 +12293,27 @@
       <c r="A222" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D222" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8" t="s">
+      <c r="E222" s="9"/>
+      <c r="F222" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="8" t="s">
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K222" s="8"/>
-      <c r="L222" s="9" t="s">
+      <c r="K222" s="9"/>
+      <c r="L222" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M222" s="5"/>
@@ -12325,33 +12331,33 @@
       <c r="A223" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="D223" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E223" s="8" t="s">
+      <c r="E223" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F223" s="8" t="s">
+      <c r="F223" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G223" s="8" t="s">
+      <c r="G223" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8" t="s">
+      <c r="H223" s="9"/>
+      <c r="I223" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="J223" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K223" s="8"/>
-      <c r="L223" s="9" t="s">
+      <c r="J223" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K223" s="9"/>
+      <c r="L223" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M223" s="5"/>
@@ -12369,27 +12375,27 @@
       <c r="A224" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8" t="s">
+      <c r="E224" s="9"/>
+      <c r="F224" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="8"/>
-      <c r="J224" s="8" t="s">
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K224" s="8"/>
-      <c r="L224" s="9" t="s">
+      <c r="K224" s="9"/>
+      <c r="L224" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M224" s="5"/>
@@ -12407,31 +12413,31 @@
       <c r="A225" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D225" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E225" s="8" t="s">
+      <c r="E225" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F225" s="8" t="s">
+      <c r="F225" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="8" t="s">
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+      <c r="I225" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="J225" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K225" s="8"/>
-      <c r="L225" s="9" t="s">
+      <c r="J225" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K225" s="9"/>
+      <c r="L225" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M225" s="5"/>
@@ -12452,22 +12458,22 @@
       <c r="B226" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8" t="s">
+      <c r="C226" s="9"/>
+      <c r="D226" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8" t="s">
+      <c r="E226" s="9"/>
+      <c r="F226" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
-      <c r="J226" s="8" t="s">
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K226" s="8"/>
-      <c r="L226" s="9" t="s">
+      <c r="K226" s="9"/>
+      <c r="L226" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M226" s="5"/>
@@ -12485,29 +12491,29 @@
       <c r="A227" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8" t="s">
+      <c r="C227" s="9"/>
+      <c r="D227" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E227" s="8" t="s">
+      <c r="E227" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F227" s="8" t="s">
+      <c r="F227" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8" t="s">
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="J227" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K227" s="8"/>
-      <c r="L227" s="9" t="s">
+      <c r="J227" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K227" s="9"/>
+      <c r="L227" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M227" s="5"/>
@@ -12525,29 +12531,29 @@
       <c r="A228" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8" t="s">
+      <c r="C228" s="9"/>
+      <c r="D228" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E228" s="8" t="s">
+      <c r="E228" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F228" s="8" t="s">
+      <c r="F228" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8" t="s">
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J228" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K228" s="8"/>
-      <c r="L228" s="9" t="s">
+      <c r="J228" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K228" s="9"/>
+      <c r="L228" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M228" s="5"/>
@@ -12575,27 +12581,27 @@
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
-      <c r="L229" s="10" t="s">
+      <c r="L229" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M229" s="11" t="s">
+      <c r="M229" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="N229" s="11"/>
-      <c r="O229" s="11" t="s">
+      <c r="N229" s="13"/>
+      <c r="O229" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P229" s="11"/>
-      <c r="Q229" s="11" t="s">
+      <c r="P229" s="13"/>
+      <c r="Q229" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="R229" s="11"/>
-      <c r="S229" s="11"/>
-      <c r="T229" s="11"/>
-      <c r="U229" s="11" t="s">
+      <c r="R229" s="13"/>
+      <c r="S229" s="13"/>
+      <c r="T229" s="13"/>
+      <c r="U229" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="V229" s="11"/>
+      <c r="V229" s="13"/>
     </row>
     <row r="230" spans="1:22">
       <c r="A230" s="5" t="s">
@@ -12611,31 +12617,31 @@
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
-      <c r="L230" s="10" t="s">
+      <c r="L230" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M230" s="11" t="s">
+      <c r="M230" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N230" s="11"/>
-      <c r="O230" s="11" t="s">
+      <c r="N230" s="13"/>
+      <c r="O230" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P230" s="11" t="s">
+      <c r="P230" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q230" s="11" t="s">
+      <c r="Q230" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="R230" s="11"/>
-      <c r="S230" s="11"/>
-      <c r="T230" s="11" t="s">
+      <c r="R230" s="13"/>
+      <c r="S230" s="13"/>
+      <c r="T230" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="U230" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V230" s="11"/>
+      <c r="U230" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V230" s="13"/>
     </row>
     <row r="231" spans="1:22">
       <c r="A231" s="5" t="s">
@@ -12651,31 +12657,31 @@
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
-      <c r="L231" s="10" t="s">
+      <c r="L231" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="M231" s="11" t="s">
+      <c r="M231" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N231" s="11"/>
-      <c r="O231" s="11" t="s">
+      <c r="N231" s="13"/>
+      <c r="O231" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P231" s="11" t="s">
+      <c r="P231" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q231" s="11" t="s">
+      <c r="Q231" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="R231" s="11"/>
-      <c r="S231" s="11"/>
-      <c r="T231" s="11" t="s">
+      <c r="R231" s="13"/>
+      <c r="S231" s="13"/>
+      <c r="T231" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="U231" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="V231" s="11"/>
+      <c r="U231" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="V231" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
